--- a/data/excel/SystemSetting_OBTAutoFulfillmentSetting.xlsx
+++ b/data/excel/SystemSetting_OBTAutoFulfillmentSetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar.gaurav\git\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17B6F69-47FF-4815-865A-4AC5C02AFEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752753C-4180-4809-B338-0C7EA07CC23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="960" windowWidth="25410" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="137">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Piyush_ql</t>
   </si>
   <si>
-    <t>Password@@12</t>
-  </si>
-  <si>
     <t>TestCaseType</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>piyush_ql</t>
   </si>
   <si>
-    <t>Quad@720</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -435,6 +429,15 @@
   </si>
   <si>
     <t>AeroFloat NDC _AIR</t>
+  </si>
+  <si>
+    <t>9@6C6535C</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -570,7 +573,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -860,14 +862,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="43.42578125" bestFit="1" customWidth="1"/>
@@ -896,45 +899,45 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -949,22 +952,22 @@
         <v>10</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="M2" s="5">
         <v>45943</v>
@@ -972,25 +975,25 @@
       <c r="N2" s="5">
         <v>45</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <v>19</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>81</v>
+      <c r="P2" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="Q2" s="5">
         <v>3</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -1005,22 +1008,22 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M3" s="5">
         <v>25734</v>
@@ -1028,25 +1031,25 @@
       <c r="N3" s="5">
         <v>46</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <v>20</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>110</v>
+      <c r="P3" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="Q3" s="5">
         <v>1</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1061,22 +1064,22 @@
         <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M4" s="5">
         <v>12345</v>
@@ -1084,25 +1087,25 @@
       <c r="N4" s="5">
         <v>47</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="17">
         <v>21</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>111</v>
+      <c r="P4" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="Q4" s="5">
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1117,22 +1120,22 @@
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M5" s="5">
         <v>54354</v>
@@ -1140,25 +1143,25 @@
       <c r="N5" s="5">
         <v>48</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <v>22</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>117</v>
+      <c r="P5" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="Q5" s="5">
         <v>3</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1173,22 +1176,22 @@
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M6" s="5">
         <v>45943</v>
@@ -1196,25 +1199,25 @@
       <c r="N6" s="5">
         <v>49</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <v>23</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>112</v>
+      <c r="P6" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="Q6" s="5">
         <v>2</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1229,22 +1232,22 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="M7" s="5">
         <v>25734</v>
@@ -1252,25 +1255,25 @@
       <c r="N7" s="5">
         <v>50</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <v>24</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>113</v>
+      <c r="P7" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="Q7" s="5">
         <v>1</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1285,22 +1288,22 @@
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M8" s="5">
         <v>12345</v>
@@ -1308,25 +1311,25 @@
       <c r="N8" s="5">
         <v>51</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <v>25</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>114</v>
+      <c r="P8" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="Q8" s="5">
         <v>3</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1341,22 +1344,22 @@
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M9" s="5">
         <v>54354</v>
@@ -1364,11 +1367,11 @@
       <c r="N9" s="5">
         <v>52</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <v>26</v>
       </c>
-      <c r="P9" s="17" t="s">
-        <v>115</v>
+      <c r="P9" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="Q9" s="5">
         <v>2</v>
@@ -1377,10 +1380,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1395,22 +1398,22 @@
         <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M10" s="5">
         <v>45943</v>
@@ -1418,25 +1421,25 @@
       <c r="N10" s="5">
         <v>53</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <v>27</v>
       </c>
-      <c r="P10" s="17" t="s">
-        <v>116</v>
+      <c r="P10" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="Q10" s="5">
         <v>3</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1451,20 +1454,20 @@
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="K11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="M11" s="5">
         <v>45943</v>
@@ -1472,25 +1475,22 @@
       <c r="N11" s="5">
         <v>54</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <v>28</v>
       </c>
-      <c r="P11" s="17" t="s">
-        <v>118</v>
+      <c r="P11" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="Q11" s="5">
         <v>4</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{E67C1A37-9F3A-4D3A-A877-E29B8CCCC543}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{23A3B25A-F24D-4C2F-A9BF-0984B7B69422}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
     </dataValidation>
@@ -1514,6 +1514,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{19042D41-E776-4BC5-BB69-B546803D0CF0}">
       <formula1>"Select Supplier,AeroFloat NDC _AIR,Amadeus  _AIR,Amadeus AQC _AIR,Amadeus NDC _AIR,BEDSONLINE _HHL,Expedia _HHL,HOTELBEDS _HHL,NEGO _HHL,Sabre 5WTF _AIR,TBO _HHL,TourAPI _AIR,Universal-69N8 _AIR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{BAE835DF-BBC7-4A32-8BFF-DE48EBD93D2A}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1536,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25426DEF-90D3-4672-B91A-B26A1CB68A0D}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,45 +1571,45 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -1618,25 +1621,25 @@
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="M2" s="5">
         <v>25734</v>
@@ -1644,17 +1647,17 @@
       <c r="N2" s="5">
         <v>50</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <v>19</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>133</v>
+      <c r="P2" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="Q2" s="5">
         <v>3</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1677,11 +1680,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{310CCFEA-C97C-40A3-8B04-8C7BA2CC7FA6}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{C0788259-1E50-41FD-96CA-78C98413C7FC}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{A0C16996-3DFB-43FA-965B-F1E4B914803D}">
       <formula1>"Select Supplier,AeroFloat NDC _AIR,Amadeus  _AIR,Amadeus AQC _AIR,Amadeus NDC _AIR,BEDSONLINE _HHL,Expedia _HHL,HOTELBEDS _HHL,NEGO _HHL,Sabre 5WTF _AIR,TBO _HHL,TourAPI _AIR,Universal-69N8 _AIR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{000F9412-AC2B-4071-9395-8C3AAF1EE260}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1696,11 +1699,12 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Y2"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1709,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -1730,105 +1734,105 @@
         <v>6</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>45943</v>
@@ -1837,75 +1841,75 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="16">
+        <v>42</v>
+      </c>
+      <c r="U2" s="15">
         <v>45245</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
         <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
       </c>
       <c r="Q3">
         <v>45943</v>
@@ -1914,75 +1918,75 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="16">
+        <v>42</v>
+      </c>
+      <c r="U3" s="15">
         <v>45245</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
         <v>45</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
         <v>54</v>
       </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>55</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
       </c>
       <c r="Q4">
         <v>25734</v>
@@ -1991,75 +1995,75 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="16">
+        <v>42</v>
+      </c>
+      <c r="U4" s="15">
         <v>45245</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s">
         <v>45</v>
-      </c>
-      <c r="X4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
         <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s">
-        <v>61</v>
       </c>
       <c r="Q5">
         <v>12345</v>
@@ -2068,75 +2072,75 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="16">
+        <v>42</v>
+      </c>
+      <c r="U5" s="15">
         <v>45245</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="s">
         <v>45</v>
-      </c>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="s">
-        <v>66</v>
       </c>
       <c r="Q6">
         <v>25734</v>
@@ -2145,75 +2149,75 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="16">
+        <v>42</v>
+      </c>
+      <c r="U6" s="15">
         <v>45245</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s">
         <v>45</v>
-      </c>
-      <c r="X6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>70</v>
+      <c r="J7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>25734</v>
@@ -2222,75 +2226,75 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="16">
+        <v>42</v>
+      </c>
+      <c r="U7" s="15">
         <v>45245</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>76</v>
+      <c r="J8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
         <v>40</v>
       </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>25734</v>
@@ -2299,25 +2303,25 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="16">
+        <v>42</v>
+      </c>
+      <c r="U8" s="15">
         <v>45245</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2325,9 +2329,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V8 R2:R8" xr:uid="{02123C23-E64E-49A1-9056-80C5B8E64E95}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8" xr:uid="{A7EEA77C-99B0-407B-80E8-6D4170BCE018}">
-      <formula1>"Laxmi@1234,Quad@721,Admin@123,Quad@720"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8" xr:uid="{DB219F60-19F0-4641-92F3-053D62F9C208}">
       <formula1>"saurav_at,ankur_at,piyush_ql"</formula1>
     </dataValidation>
@@ -2366,23 +2367,19 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K8" xr:uid="{4A1FDC5D-E78E-4CD4-BF68-D55A9A5C4F59}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8" xr:uid="{7B178951-6784-4CBA-9BAE-1B6C5930AF4D}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{12CE1F1E-346C-4CF4-B43D-AF6504DAF5F9}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{07A32998-A48C-484E-906F-D366275B6CC0}"/>
-    <hyperlink ref="G3" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{BB01C986-4631-463B-AB1E-148D9650E9AC}"/>
-    <hyperlink ref="G4" r:id="rId4" display="shubham.natkar@quadlabs.com" xr:uid="{4A2AA739-2909-4EEE-99A7-CC2CEAD529FB}"/>
-    <hyperlink ref="G5" r:id="rId5" display="shubham.natkar@quadlabs.com" xr:uid="{E025C4BF-7CCA-4CEA-BBFA-A6EBD0B41CF3}"/>
-    <hyperlink ref="G6" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{B0C79AA4-9378-4228-94DD-47CC6735FA51}"/>
-    <hyperlink ref="G7" r:id="rId7" display="shubham.natkar@quadlabs.com" xr:uid="{EC78C4AB-54CE-4A5A-BCD9-A850D2E94F40}"/>
-    <hyperlink ref="H3" r:id="rId8" display="Shekhar123@" xr:uid="{7B70ADA7-E5F6-4AAD-B139-893E789B4C6F}"/>
-    <hyperlink ref="H4" r:id="rId9" display="Shekhar123@" xr:uid="{95608BB5-95E0-40F8-B6A9-E66B19975709}"/>
-    <hyperlink ref="H5" r:id="rId10" display="Shekhar123@" xr:uid="{905D87B1-16B6-42A9-A079-17A6752C35B4}"/>
-    <hyperlink ref="H6" r:id="rId11" display="Shekhar123@" xr:uid="{76BD69FA-872C-4965-ADBF-3F0BE0BBA0D9}"/>
-    <hyperlink ref="H7" r:id="rId12" display="Shekhar123@" xr:uid="{AE778585-9EE8-43E7-BE55-05EB716E6DDE}"/>
-    <hyperlink ref="G8" r:id="rId13" display="shubham.natkar@quadlabs.com" xr:uid="{3378777A-9D97-4721-AD6D-32B03FC6CB6A}"/>
-    <hyperlink ref="H8" r:id="rId14" display="Shekhar123@" xr:uid="{BFA652DD-75E9-4F58-89BE-D3FA6F6AF0E4}"/>
+    <hyperlink ref="G3" r:id="rId2" display="shubham.natkar@quadlabs.com" xr:uid="{BB01C986-4631-463B-AB1E-148D9650E9AC}"/>
+    <hyperlink ref="G4" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{4A2AA739-2909-4EEE-99A7-CC2CEAD529FB}"/>
+    <hyperlink ref="G5" r:id="rId4" display="shubham.natkar@quadlabs.com" xr:uid="{E025C4BF-7CCA-4CEA-BBFA-A6EBD0B41CF3}"/>
+    <hyperlink ref="G6" r:id="rId5" display="shubham.natkar@quadlabs.com" xr:uid="{B0C79AA4-9378-4228-94DD-47CC6735FA51}"/>
+    <hyperlink ref="G7" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{EC78C4AB-54CE-4A5A-BCD9-A850D2E94F40}"/>
+    <hyperlink ref="G8" r:id="rId7" display="shubham.natkar@quadlabs.com" xr:uid="{3378777A-9D97-4721-AD6D-32B03FC6CB6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
